--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P34_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P34_trail9 Features.xlsx
@@ -2897,7 +2897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2908,29 +2908,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2951,115 +2949,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3076,72 +3064,66 @@
         <v>7.449080101457534e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.3396807631231091</v>
+        <v>3.353158015581596e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.9896730814389723</v>
+        <v>3.613070798113126e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.353158015581596e-07</v>
+        <v>0.05797921055662002</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.613070798113126e-06</v>
+        <v>0.2885681807353063</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.05797921055662002</v>
+        <v>0.08654822688527221</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2885681807353063</v>
+        <v>1.658432815948968</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.08654822688527221</v>
+        <v>1.532633340764179</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.56528584575133</v>
+        <v>3.90581688832979</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.532633340764179</v>
+        <v>5.570480424703905e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.90581688832979</v>
+        <v>40801393.80389033</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5.570480424703905e-15</v>
+        <v>2.746667171588272e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>40801393.80389033</v>
+        <v>9.273478100235439</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.746667171588272e-06</v>
+        <v>0.0001607343643885201</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>9.273478100235439</v>
+        <v>8.563915729118289</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001607343643885201</v>
+        <v>1.730893563225512</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.563915729118289</v>
+        <v>0.01178836318198194</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.730893563225512</v>
+        <v>3.108428490494669</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01178836318198194</v>
+        <v>0.9458870505342363</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.108428490494669</v>
+        <v>1.800062067442395</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9458870505342363</v>
+        <v>6</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.800062067442395</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1679590932557803</v>
       </c>
     </row>
@@ -3156,72 +3138,66 @@
         <v>7.159789526260916e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.446715420293695</v>
+        <v>2.584851453695088e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.235472472325015</v>
+        <v>3.616566191455098e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.584851453695088e-07</v>
+        <v>0.0381690191632422</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.616566191455098e-06</v>
+        <v>0.2722985238126039</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.0381690191632422</v>
+        <v>0.07553949348795742</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2722985238126039</v>
+        <v>1.645753880052162</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.07553949348795742</v>
+        <v>1.500910237230412</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.547504880723257</v>
+        <v>4.328496846047694</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.500910237230412</v>
+        <v>4.453187054999318e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.328496846047694</v>
+        <v>51124460.116273</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.453187054999318e-15</v>
+        <v>2.187271137763351e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>51124460.116273</v>
+        <v>11.63934141757051</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.187271137763351e-06</v>
+        <v>0.0001418741758294476</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>11.63934141757051</v>
+        <v>9.923398852676344</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001418741758294476</v>
+        <v>1.251513114795288</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.923398852676344</v>
+        <v>0.01397089557023862</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.251513114795288</v>
+        <v>2.993119029969239</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01397089557023862</v>
+        <v>0.9459573220796611</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.993119029969239</v>
+        <v>1.818265543746487</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9459573220796611</v>
+        <v>6</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.818265543746487</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1929394203809824</v>
       </c>
     </row>
@@ -3236,72 +3212,66 @@
         <v>7.053614557184343e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.4263682493132055</v>
+        <v>2.209322261018346e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.253279471015438</v>
+        <v>3.618662252163109e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.209322261018346e-07</v>
+        <v>0.02166698686998886</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.618662252163109e-06</v>
+        <v>0.2550977639356727</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.02166698686998886</v>
+        <v>0.06550572317477753</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2550977639356727</v>
+        <v>1.689163225897373</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.06550572317477753</v>
+        <v>1.765712953418102</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.594312735761696</v>
+        <v>3.799390578248344</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.765712953418102</v>
+        <v>4.139168836861536e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.799390578248344</v>
+        <v>54727117.7511586</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.139168836861536e-15</v>
+        <v>2.07725683927876e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>54727117.7511586</v>
+        <v>12.39704832650272</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.07725683927876e-06</v>
+        <v>0.0001617946492745029</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>12.39704832650272</v>
+        <v>10.61782798775383</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001617946492745029</v>
+        <v>1.214571888513888</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.61782798775383</v>
+        <v>0.01824044904498204</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.214571888513888</v>
+        <v>2.805043257814937</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01824044904498204</v>
+        <v>0.9508119248126151</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.805043257814937</v>
+        <v>1.763940398508078</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9508119248126151</v>
+        <v>5</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.763940398508078</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1825253384577955</v>
       </c>
     </row>
@@ -3316,72 +3286,66 @@
         <v>7.031325283887482e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.3912088787798364</v>
+        <v>2.209322261018346e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.260029554404661</v>
+        <v>3.619714249397081e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.209322261018346e-07</v>
+        <v>0.008723696335632351</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.619714249397081e-06</v>
+        <v>0.2417542401163505</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.008723696335632351</v>
+        <v>0.05849752887448519</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2417542401163505</v>
+        <v>1.691491834175002</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.05849752887448519</v>
+        <v>1.609434446440216</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.597395190784103</v>
+        <v>3.86272693790115</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.609434446440216</v>
+        <v>4.004543429095229e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.86272693790115</v>
+        <v>53579950.57520961</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.004543429095229e-15</v>
+        <v>2.112202267653804e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>53579950.57520961</v>
+        <v>11.49628774126281</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.112202267653804e-06</v>
+        <v>0.0001529271926562757</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>11.49628774126281</v>
+        <v>9.570409964284222</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001529271926562757</v>
+        <v>1.262923183660289</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.570409964284222</v>
+        <v>0.01400702164871895</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.262923183660289</v>
+        <v>2.899284627349503</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01400702164871895</v>
+        <v>0.9515402804864583</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.899284627349503</v>
+        <v>1.76255099654893</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9515402804864583</v>
+        <v>10</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.76255099654893</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1801422064564985</v>
       </c>
     </row>
@@ -3396,72 +3360,66 @@
         <v>7.031036236356203e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.3816424160860396</v>
+        <v>2.209322261018346e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.264776955387779</v>
+        <v>3.619940596375477e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.209322261018346e-07</v>
+        <v>-0.001807004334315944</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.619940596375477e-06</v>
+        <v>0.2329064078577072</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.001807004334315944</v>
+        <v>0.05423528392297012</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2329064078577072</v>
+        <v>1.697047711408533</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.05423528392297012</v>
+        <v>1.662809065111418</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.604861103610614</v>
+        <v>3.955738168078013</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.662809065111418</v>
+        <v>3.818439808149813e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.955738168078013</v>
+        <v>56468018.40542758</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.818439808149813e-15</v>
+        <v>2.009667351507308e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>56468018.40542758</v>
+        <v>12.17561884644767</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.009667351507308e-06</v>
+        <v>0.0001309130297393397</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>12.17561884644767</v>
+        <v>8.260468941931139</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001309130297393397</v>
+        <v>1.266372579738037</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.260468941931139</v>
+        <v>0.008932896029492706</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.266372579738037</v>
+        <v>3.033485870873749</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.008932896029492706</v>
+        <v>0.9518976632613049</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.033485870873749</v>
+        <v>1.740234578943343</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9518976632613049</v>
+        <v>17</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.740234578943343</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.195340006176785</v>
       </c>
     </row>
@@ -3476,72 +3434,66 @@
         <v>7.02155743917453e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.3997837829399108</v>
+        <v>2.209322261018346e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.246661829872157</v>
+        <v>3.619523080464493e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.209322261018346e-07</v>
+        <v>-0.009572813772088849</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.619523080464493e-06</v>
+        <v>0.2281587937750204</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.009572813772088849</v>
+        <v>0.05214107349113126</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2281587937750204</v>
+        <v>1.71223160752151</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.05214107349113126</v>
+        <v>1.554843622396979</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.627053634871523</v>
+        <v>4.227180497505695</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.554843622396979</v>
+        <v>3.343793428581684e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.227180497505695</v>
+        <v>66147429.64189159</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.343793428581684e-15</v>
+        <v>1.728972383624229e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>66147429.64189159</v>
+        <v>14.63070945726262</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.728972383624229e-06</v>
+        <v>0.0001182019186850006</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>14.63070945726262</v>
+        <v>7.573115697768193</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001182019186850006</v>
+        <v>1.264496649841004</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.573115697768193</v>
+        <v>0.006779126058723037</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.264496649841004</v>
+        <v>3.083676166733716</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.006779126058723037</v>
+        <v>0.9526160762308538</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.083676166733716</v>
+        <v>1.739918288461425</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9526160762308538</v>
+        <v>17</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.739918288461425</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.218931802332866</v>
       </c>
     </row>
@@ -3918,7 +3870,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.150016213246643</v>
+        <v>1.127809652778595</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.449325708752479</v>
@@ -4007,7 +3959,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.148227774320074</v>
+        <v>1.126702590658232</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.451986453910221</v>
@@ -4096,7 +4048,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.151749475589177</v>
+        <v>1.129948835441443</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.452821496453935</v>
@@ -4185,7 +4137,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.178910770120297</v>
+        <v>1.152401744695626</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.378663698566333</v>
@@ -4274,7 +4226,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.337782664492545</v>
+        <v>1.306343169784154</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.660540687099586</v>
@@ -4363,7 +4315,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.421627968492834</v>
+        <v>1.399741213578311</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.88681657997994</v>
@@ -4452,7 +4404,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.393350065829332</v>
+        <v>1.381332573339931</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.267970745112823</v>
@@ -4541,7 +4493,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.385853367314704</v>
+        <v>1.373373687974986</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.176065433709601</v>
@@ -4630,7 +4582,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.374240745397241</v>
+        <v>1.355724666136055</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.136447804837865</v>
@@ -4719,7 +4671,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.344920144718024</v>
+        <v>1.335636679561779</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.166052246440428</v>
@@ -4808,7 +4760,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.355122908233732</v>
+        <v>1.344288639851063</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.17480180366003</v>
@@ -4897,7 +4849,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.353266030242407</v>
+        <v>1.342957874237201</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.236486120906553</v>
@@ -4986,7 +4938,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.350155375974786</v>
+        <v>1.343450490373792</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.328976539271798</v>
@@ -5075,7 +5027,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.353147035032258</v>
+        <v>1.347011381317633</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.102525445044331</v>
@@ -5164,7 +5116,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.358848393208133</v>
+        <v>1.349328624417093</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.053515120387169</v>
@@ -5253,7 +5205,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.362254716215295</v>
+        <v>1.349105733679738</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.154108223149717</v>
@@ -5342,7 +5294,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.392116236445432</v>
+        <v>1.376573301060286</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.073703882334153</v>
@@ -5431,7 +5383,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.364243450045601</v>
+        <v>1.352501929714926</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.105813181706306</v>
@@ -5520,7 +5472,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.360661160505334</v>
+        <v>1.349625070987651</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.094826216882523</v>
@@ -5609,7 +5561,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.323711741655158</v>
+        <v>1.314347660710237</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.157918502686517</v>
@@ -5698,7 +5650,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.330789026733786</v>
+        <v>1.321302514030234</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.174241527355715</v>
@@ -5787,7 +5739,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.307218752128473</v>
+        <v>1.302485936841458</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.054603907252804</v>
@@ -5876,7 +5828,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.2762840323761</v>
+        <v>1.273434207833504</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.146138720967858</v>
@@ -5965,7 +5917,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.285911094510644</v>
+        <v>1.278952015659027</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.037198975822843</v>
@@ -6054,7 +6006,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.275180218748915</v>
+        <v>1.274924764824415</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.116442950862761</v>
@@ -6143,7 +6095,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.272248087128707</v>
+        <v>1.27587680598129</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.099503403244667</v>
@@ -6232,7 +6184,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.275904275913691</v>
+        <v>1.277962439120011</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.13923033498974</v>
@@ -6321,7 +6273,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.288769564710069</v>
+        <v>1.288064375175242</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.111921975455224</v>
@@ -6410,7 +6362,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.269834548073841</v>
+        <v>1.271601799696086</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.11702782390703</v>
@@ -6499,7 +6451,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.265337611976465</v>
+        <v>1.26868011595975</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.091331108848754</v>
@@ -6588,7 +6540,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.266080804850602</v>
+        <v>1.271766805221218</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.092460844821229</v>
@@ -6677,7 +6629,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.270888023612355</v>
+        <v>1.277286308763758</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.020402744263829</v>
@@ -6766,7 +6718,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.288825831417846</v>
+        <v>1.285688616546872</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.121696737476201</v>
@@ -6855,7 +6807,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.255772150879715</v>
+        <v>1.23768746168612</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.985884607491809</v>
@@ -6944,7 +6896,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.288520906607172</v>
+        <v>1.261796918617196</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.915419695289211</v>
@@ -7033,7 +6985,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.295052284340838</v>
+        <v>1.249115283145876</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.978657412955308</v>
@@ -7122,7 +7074,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.310532829302768</v>
+        <v>1.257721544319353</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.059220153700204</v>
@@ -7211,7 +7163,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.316137719572108</v>
+        <v>1.261963455410305</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.000736067979852</v>
@@ -7300,7 +7252,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.333085029905976</v>
+        <v>1.271644058899245</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.052010590399509</v>
@@ -7389,7 +7341,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.333336132257371</v>
+        <v>1.270998064859179</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.049782858367211</v>
@@ -7478,7 +7430,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.330020771302827</v>
+        <v>1.26298376063385</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.072352849285564</v>
@@ -7567,7 +7519,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.320580439662395</v>
+        <v>1.256626312856549</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.120194605367204</v>
@@ -7656,7 +7608,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.326278309517005</v>
+        <v>1.262256429860145</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.063105193722061</v>
@@ -7745,7 +7697,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.32953413199612</v>
+        <v>1.25867001530377</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.141888344170635</v>
@@ -7834,7 +7786,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.324569692480237</v>
+        <v>1.254127428206699</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.17750762166094</v>
@@ -7923,7 +7875,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.309326583660661</v>
+        <v>1.246744775366986</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.196240312756494</v>
@@ -8012,7 +7964,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.314891346076295</v>
+        <v>1.254976249943244</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.233276135692186</v>
@@ -8101,7 +8053,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.335878242438289</v>
+        <v>1.285828590657688</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.967481330535737</v>
@@ -8190,7 +8142,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.331768139077679</v>
+        <v>1.282012341072858</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.997193027141223</v>
@@ -8279,7 +8231,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.334001469381922</v>
+        <v>1.286357230279588</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.988411249588201</v>
@@ -8368,7 +8320,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.345307175389525</v>
+        <v>1.309973283141441</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.088712038813506</v>
@@ -8654,7 +8606,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.361512153093788</v>
+        <v>1.33632849252255</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.710175055675849</v>
@@ -8743,7 +8695,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.361444242625245</v>
+        <v>1.334853883455879</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.711739240936243</v>
@@ -8832,7 +8784,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.360949744024855</v>
+        <v>1.3357045923329</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.711437342949889</v>
@@ -8921,7 +8873,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.368701589860498</v>
+        <v>1.334080714925636</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.628968470599231</v>
@@ -9010,7 +8962,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.520457888154531</v>
+        <v>1.507842793400724</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.010905658176887</v>
@@ -9099,7 +9051,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.537377676309248</v>
+        <v>1.523459959301774</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.40003716521829</v>
@@ -9188,7 +9140,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.524672254232272</v>
+        <v>1.513684823734408</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.148716492532217</v>
@@ -9277,7 +9229,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.512299460535224</v>
+        <v>1.499760673274911</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.922751416487641</v>
@@ -9366,7 +9318,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.515116532138368</v>
+        <v>1.491856433484225</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.408149186336297</v>
@@ -9455,7 +9407,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.484856149117494</v>
+        <v>1.471568431460121</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.376019353822578</v>
@@ -9544,7 +9496,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.492761606927222</v>
+        <v>1.479315892704667</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.371579565510034</v>
@@ -9633,7 +9585,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.488743807008475</v>
+        <v>1.479580134379521</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.334630653477711</v>
@@ -9722,7 +9674,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.501151150375827</v>
+        <v>1.489166225337328</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.368278970867302</v>
@@ -9811,7 +9763,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.515853294879014</v>
+        <v>1.502130654205413</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.252451330318196</v>
@@ -9900,7 +9852,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.520543448003734</v>
+        <v>1.504600395842453</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.198918948763549</v>
@@ -9989,7 +9941,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.529098860733789</v>
+        <v>1.512038785622539</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.287050385209231</v>
@@ -10078,7 +10030,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.52894081002771</v>
+        <v>1.513338775529417</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.255160785951992</v>
@@ -10167,7 +10119,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.542641021822436</v>
+        <v>1.522917688449187</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.392698328615912</v>
@@ -10256,7 +10208,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.569675703725125</v>
+        <v>1.547259851159637</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.289482772715934</v>
@@ -10345,7 +10297,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.554176276843819</v>
+        <v>1.537082361209757</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.389717058909548</v>
@@ -10434,7 +10386,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.555177683200241</v>
+        <v>1.538283776252566</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.456550207499027</v>
@@ -10523,7 +10475,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.501786006086415</v>
+        <v>1.490707277282145</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.194592716904187</v>
@@ -10612,7 +10564,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.478995683884595</v>
+        <v>1.469078937757627</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.246044172184807</v>
@@ -10701,7 +10653,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.457785494709382</v>
+        <v>1.441193454259035</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.03915065647629</v>
@@ -10790,7 +10742,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.458965184046719</v>
+        <v>1.454111314084939</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.183405178814684</v>
@@ -10879,7 +10831,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.461541762868269</v>
+        <v>1.458192817068948</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.180780642298211</v>
@@ -10968,7 +10920,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.460837725098966</v>
+        <v>1.456304148339658</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.184982024448394</v>
@@ -11057,7 +11009,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.450071768094621</v>
+        <v>1.448428397036585</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.175892863819233</v>
@@ -11146,7 +11098,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.439543621918657</v>
+        <v>1.440439385067399</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.229126957349425</v>
@@ -11235,7 +11187,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.438152838606793</v>
+        <v>1.43987843063962</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.18362929904023</v>
@@ -11324,7 +11276,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.427851494595637</v>
+        <v>1.427507289062705</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.154668101578133</v>
@@ -11413,7 +11365,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.421768616132149</v>
+        <v>1.422624264089084</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.178058744732143</v>
@@ -11502,7 +11454,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.394632596005916</v>
+        <v>1.396347157150157</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.201730946534926</v>
@@ -11591,7 +11543,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.357484610401639</v>
+        <v>1.359114192652273</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.29610562826601</v>
@@ -11680,7 +11632,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.363038562296094</v>
+        <v>1.364519215678722</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.22737091373977</v>
@@ -11769,7 +11721,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.335695144369565</v>
+        <v>1.332345158343176</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.261757026525069</v>
@@ -11858,7 +11810,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.364823133048311</v>
+        <v>1.365426591846715</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.170155287332178</v>
@@ -11947,7 +11899,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.35744334954427</v>
+        <v>1.356581635713524</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.259590251627954</v>
@@ -12036,7 +11988,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.363115163831215</v>
+        <v>1.367579194102093</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.162620169286244</v>
@@ -12125,7 +12077,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.357691866864142</v>
+        <v>1.363346390739236</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.346853660840037</v>
@@ -12214,7 +12166,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.358742790025958</v>
+        <v>1.365768349106709</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.325333596203189</v>
@@ -12303,7 +12255,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.351482942923466</v>
+        <v>1.362174385143982</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.442991567324612</v>
@@ -12392,7 +12344,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.355120977278031</v>
+        <v>1.367808134670828</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.424467694004701</v>
@@ -12481,7 +12433,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.360501742096251</v>
+        <v>1.37302082034725</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.306718346222375</v>
@@ -12570,7 +12522,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.361417443794834</v>
+        <v>1.374564948432442</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.46567336541223</v>
@@ -12659,7 +12611,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.3480265910538</v>
+        <v>1.356634142270422</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.441127846223405</v>
@@ -12748,7 +12700,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.362856898785989</v>
+        <v>1.371363290569334</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.493706513185309</v>
@@ -12837,7 +12789,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.391278799543336</v>
+        <v>1.394167428936573</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.799600431317057</v>
@@ -12926,7 +12878,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.360762119062473</v>
+        <v>1.36096336016306</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.853989331443059</v>
@@ -13015,7 +12967,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.375647876760326</v>
+        <v>1.379497862578145</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.758242837397753</v>
@@ -13104,7 +13056,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.405258613083642</v>
+        <v>1.411953980010568</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.822482584261974</v>
@@ -13390,7 +13342,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.449588148752486</v>
+        <v>1.413604778327301</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.662299874058952</v>
@@ -13479,7 +13431,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.450138339838686</v>
+        <v>1.411991902342381</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.66202873276469</v>
@@ -13568,7 +13520,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.454613725367403</v>
+        <v>1.415739626467438</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.666162197932588</v>
@@ -13657,7 +13609,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.45581662280465</v>
+        <v>1.41361805505995</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.553862627417697</v>
@@ -13746,7 +13698,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.551068128430797</v>
+        <v>1.523489037848592</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.163662298861296</v>
@@ -13835,7 +13787,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.576802709809785</v>
+        <v>1.541885332438041</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.92913111978935</v>
@@ -13924,7 +13876,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.562127314458683</v>
+        <v>1.526219113174879</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.979452076310659</v>
@@ -14013,7 +13965,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.552418288323711</v>
+        <v>1.51449384803319</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.101358482335276</v>
@@ -14102,7 +14054,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.547607471462421</v>
+        <v>1.50642718053048</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.122529224847294</v>
@@ -14191,7 +14143,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.53099621703746</v>
+        <v>1.48846821130756</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.975439411280342</v>
@@ -14280,7 +14232,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.542514308557162</v>
+        <v>1.494117426243229</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.831597294197418</v>
@@ -14369,7 +14321,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.543048705733262</v>
+        <v>1.49620419843533</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.929526552324559</v>
@@ -14458,7 +14410,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.551818720191915</v>
+        <v>1.504382772000485</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.505672028987263</v>
@@ -14547,7 +14499,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.563321129634122</v>
+        <v>1.514307372726539</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.852185096235698</v>
@@ -14636,7 +14588,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.570622843171139</v>
+        <v>1.510563786713826</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.676234639779873</v>
@@ -14725,7 +14677,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.573522224096666</v>
+        <v>1.505073161682689</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.742133660761303</v>
@@ -14814,7 +14766,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.587897100364953</v>
+        <v>1.51834174920903</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.739959282134059</v>
@@ -14903,7 +14855,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.57924075753901</v>
+        <v>1.514080090275481</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.800751973051196</v>
@@ -14992,7 +14944,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.58070693650618</v>
+        <v>1.508810169391772</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.734044753298726</v>
@@ -15081,7 +15033,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.571327619274277</v>
+        <v>1.506227203743628</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.585189399766424</v>
@@ -15170,7 +15122,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.589754259515576</v>
+        <v>1.522688869370908</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.566848569621138</v>
@@ -15259,7 +15211,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.573594538289869</v>
+        <v>1.512284287337824</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.919572075311889</v>
@@ -15348,7 +15300,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.570551816558237</v>
+        <v>1.514227891195461</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.892406308761851</v>
@@ -15437,7 +15389,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.570242904464604</v>
+        <v>1.516509643524667</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.447525250653284</v>
@@ -15526,7 +15478,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.579797716008955</v>
+        <v>1.531078887230264</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.752044222750048</v>
@@ -15615,7 +15567,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.583130374572008</v>
+        <v>1.53624992967206</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.770981844513388</v>
@@ -15704,7 +15656,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.589137681108806</v>
+        <v>1.539610031635982</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.872735369677441</v>
@@ -15793,7 +15745,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.567808036863473</v>
+        <v>1.525729539201516</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.880946672696445</v>
@@ -15882,7 +15834,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.553792618401135</v>
+        <v>1.515860937922484</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.859823282354985</v>
@@ -15971,7 +15923,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.550545849951737</v>
+        <v>1.516954106628339</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.724819243829568</v>
@@ -16060,7 +16012,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.537459938177083</v>
+        <v>1.50928595856931</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.838719673042053</v>
@@ -16149,7 +16101,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.533712026970745</v>
+        <v>1.508355729411818</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.77124898647104</v>
@@ -16238,7 +16190,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.483337955506327</v>
+        <v>1.462814593460552</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.34074031445933</v>
@@ -16327,7 +16279,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.451293090561759</v>
+        <v>1.440053318531289</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.296255088720261</v>
@@ -16416,7 +16368,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.447681373853359</v>
+        <v>1.437845995644672</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.284078512563537</v>
@@ -16505,7 +16457,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.40492236223045</v>
+        <v>1.393889278888667</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.127356779449613</v>
@@ -16594,7 +16546,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.409911021494023</v>
+        <v>1.399899765294559</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.137302188474142</v>
@@ -16683,7 +16635,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.401707293334135</v>
+        <v>1.387929585129606</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.148030583999827</v>
@@ -16772,7 +16724,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.408262955928391</v>
+        <v>1.395218842653053</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.10313022375007</v>
@@ -16861,7 +16813,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.402646949922161</v>
+        <v>1.38732564859213</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.091281570707102</v>
@@ -16950,7 +16902,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.408078587558028</v>
+        <v>1.392109700584725</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.118635895611278</v>
@@ -17039,7 +16991,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.399881074390279</v>
+        <v>1.386846632807061</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.106616578447621</v>
@@ -17128,7 +17080,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.405237192333679</v>
+        <v>1.393836396728184</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.134187613257459</v>
@@ -17217,7 +17169,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.405165030782851</v>
+        <v>1.392951250607234</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.113974441383216</v>
@@ -17306,7 +17258,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.403968264627064</v>
+        <v>1.394550115317194</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.099834802081094</v>
@@ -17395,7 +17347,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.380338943928673</v>
+        <v>1.365762628401591</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.204026944603977</v>
@@ -17484,7 +17436,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.379662621309088</v>
+        <v>1.36302989985538</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.133276076314859</v>
@@ -17573,7 +17525,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.407587417867143</v>
+        <v>1.405175600929716</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.736532809983812</v>
@@ -17662,7 +17614,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.338716986590523</v>
+        <v>1.327368693400881</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.71444463496687</v>
@@ -17751,7 +17703,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.358656079245665</v>
+        <v>1.344070808111976</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.685945940628291</v>
@@ -17840,7 +17792,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.373470944860634</v>
+        <v>1.371090425743941</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.737880991751296</v>
@@ -18126,7 +18078,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.45163176947509</v>
+        <v>1.4203966265612</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.619918287722209</v>
@@ -18215,7 +18167,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.452516022912329</v>
+        <v>1.420257327599291</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.617498562795719</v>
@@ -18304,7 +18256,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.45437567943568</v>
+        <v>1.421774026872215</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.621566213566618</v>
@@ -18393,7 +18345,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.465393325055547</v>
+        <v>1.42358574350481</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.521935284592542</v>
@@ -18482,7 +18434,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.565536739945212</v>
+        <v>1.540041882908899</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.396718768344544</v>
@@ -18571,7 +18523,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.589355221490086</v>
+        <v>1.557359567196346</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.118639317772446</v>
@@ -18660,7 +18612,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.57432004627325</v>
+        <v>1.543401648463284</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.204667664795287</v>
@@ -18749,7 +18701,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.56868490491976</v>
+        <v>1.534552912501185</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.06942320119212</v>
@@ -18838,7 +18790,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.563646952251623</v>
+        <v>1.524481126473928</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.069766944165735</v>
@@ -18927,7 +18879,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.56239093784992</v>
+        <v>1.52030565725077</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.088150998126376</v>
@@ -19016,7 +18968,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.578493678637154</v>
+        <v>1.533553199861146</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.20149133347224</v>
@@ -19105,7 +19057,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.587364179157945</v>
+        <v>1.541593174097664</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.787587282558084</v>
@@ -19194,7 +19146,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.597005839091333</v>
+        <v>1.545256725808402</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.449405109000912</v>
@@ -19283,7 +19235,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.60708911348633</v>
+        <v>1.553707608004975</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.032330179567713</v>
@@ -19372,7 +19324,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.620861304773813</v>
+        <v>1.55444575944568</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.013711888753034</v>
@@ -19461,7 +19413,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.627394050681589</v>
+        <v>1.551624745501059</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.267570167415959</v>
@@ -19550,7 +19502,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.627392911679604</v>
+        <v>1.547740453743668</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.035210554634371</v>
@@ -19639,7 +19591,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.622631562363968</v>
+        <v>1.549102588556392</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.128525002162998</v>
@@ -19728,7 +19680,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.626136015461683</v>
+        <v>1.551493641856591</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.104207424525083</v>
@@ -19817,7 +19769,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.638020978805323</v>
+        <v>1.563731288570463</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.051640366498139</v>
@@ -19906,7 +19858,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.646758489946953</v>
+        <v>1.569972576329675</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.039334263805858</v>
@@ -19995,7 +19947,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.634448895125987</v>
+        <v>1.572302009350625</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.316330046336659</v>
@@ -20084,7 +20036,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.625236600563583</v>
+        <v>1.568612958988113</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.257059368372131</v>
@@ -20173,7 +20125,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.602767952793889</v>
+        <v>1.55571865769112</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.068611859853017</v>
@@ -20262,7 +20214,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.602174778457212</v>
+        <v>1.555631783485541</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.064921048974087</v>
@@ -20351,7 +20303,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.604686413843265</v>
+        <v>1.55848949590241</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.994544259355163</v>
@@ -20440,7 +20392,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.604160090477685</v>
+        <v>1.556359532952837</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.168070716326936</v>
@@ -20529,7 +20481,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.569753482090258</v>
+        <v>1.532278222906415</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.811321978751827</v>
@@ -20618,7 +20570,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.561992470725653</v>
+        <v>1.529209787368631</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.890607563397776</v>
@@ -20707,7 +20659,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.559568482226366</v>
+        <v>1.52966631502124</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.815291831286069</v>
@@ -20796,7 +20748,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.54545127737736</v>
+        <v>1.523138557494147</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.893030649610475</v>
@@ -20885,7 +20837,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.552169292433957</v>
+        <v>1.534539640207194</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.807794329972484</v>
@@ -20974,7 +20926,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.487957902393924</v>
+        <v>1.474588219015905</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.227256569507559</v>
@@ -21063,7 +21015,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.460989581872497</v>
+        <v>1.457704443241907</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.28813258202981</v>
@@ -21152,7 +21104,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.434949480767604</v>
+        <v>1.437443707912845</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.297309930973242</v>
@@ -21241,7 +21193,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.403640047424892</v>
+        <v>1.404501633033306</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.136155767575255</v>
@@ -21330,7 +21282,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.40944497099141</v>
+        <v>1.407840651089471</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.127098325126838</v>
@@ -21419,7 +21371,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.414919434400428</v>
+        <v>1.40661242068063</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.081176366772332</v>
@@ -21508,7 +21460,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.420494219716149</v>
+        <v>1.412599797152911</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.12303794373975</v>
@@ -21597,7 +21549,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.418340292525945</v>
+        <v>1.410798999904767</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.14256325741841</v>
@@ -21686,7 +21638,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.411364321223394</v>
+        <v>1.40162523413148</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.111469420434468</v>
@@ -21775,7 +21727,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.414632542122872</v>
+        <v>1.407720443532156</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.143986674896142</v>
@@ -21864,7 +21816,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.422510260038494</v>
+        <v>1.419988534095347</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.069657259508902</v>
@@ -21953,7 +21905,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.417763573660187</v>
+        <v>1.411634648091868</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.136945079549157</v>
@@ -22042,7 +21994,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.41630730896387</v>
+        <v>1.410372073676511</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.116834850040793</v>
@@ -22131,7 +22083,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.384345452641675</v>
+        <v>1.370153452388273</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.059487540040275</v>
@@ -22220,7 +22172,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.378545816378093</v>
+        <v>1.363793669466046</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.11045687924473</v>
@@ -22309,7 +22261,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.416661344959398</v>
+        <v>1.410394611212908</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.669272811176472</v>
@@ -22398,7 +22350,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.32778356051302</v>
+        <v>1.312190012178628</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.677962019997781</v>
@@ -22487,7 +22439,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.355106629430008</v>
+        <v>1.334785598620448</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.655941115281677</v>
@@ -22576,7 +22528,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.361515747331685</v>
+        <v>1.355537547431213</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.699415976109678</v>
@@ -22862,7 +22814,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.24187697606739</v>
+        <v>1.234644388472608</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.426618010125092</v>
@@ -22951,7 +22903,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.239238621470762</v>
+        <v>1.231234679006819</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.42629728433935</v>
@@ -23040,7 +22992,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.237725062547586</v>
+        <v>1.228974579061052</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.428659353345535</v>
@@ -23129,7 +23081,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.253835792380463</v>
+        <v>1.232402777487857</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.359270955388113</v>
@@ -23218,7 +23170,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.519177654842712</v>
+        <v>1.520024406649881</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.76513590725838</v>
@@ -23307,7 +23259,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.619338998829265</v>
+        <v>1.601006711959914</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.598709048825104</v>
@@ -23396,7 +23348,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.61039739338487</v>
+        <v>1.594996793586012</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.328372064875937</v>
@@ -23485,7 +23437,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.603609950082121</v>
+        <v>1.578552364916885</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.555966176166194</v>
@@ -23574,7 +23526,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.589726082004282</v>
+        <v>1.559271031858467</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.528755656507838</v>
@@ -23663,7 +23615,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.564549355275666</v>
+        <v>1.545310237482583</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.519054806242865</v>
@@ -23752,7 +23704,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.563253299809263</v>
+        <v>1.542676129525497</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.338156655753988</v>
@@ -23841,7 +23793,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.567855589840719</v>
+        <v>1.544625617391705</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.435750162980922</v>
@@ -23930,7 +23882,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.555683719045819</v>
+        <v>1.538301701260659</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.260404111133051</v>
@@ -24019,7 +23971,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.567863756876045</v>
+        <v>1.545449550189967</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.499843899030301</v>
@@ -24108,7 +24060,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.569014890980809</v>
+        <v>1.542590823652409</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.395024020645759</v>
@@ -24197,7 +24149,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.558582385921675</v>
+        <v>1.528878356708055</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.346227096803075</v>
@@ -24286,7 +24238,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.56285894892964</v>
+        <v>1.533589084668025</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.254910076868243</v>
@@ -24375,7 +24327,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.570333563757533</v>
+        <v>1.541426502939992</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.428948734584572</v>
@@ -24464,7 +24416,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.579076899939271</v>
+        <v>1.547189777752224</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.281283162752328</v>
@@ -24553,7 +24505,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.545978382029679</v>
+        <v>1.518856263518476</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.266115284317217</v>
@@ -24642,7 +24594,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.543418906812338</v>
+        <v>1.521497697260683</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.232278386592551</v>
@@ -24731,7 +24683,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.50640878724195</v>
+        <v>1.492340278356221</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.244337560439471</v>
@@ -24820,7 +24772,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.501769064775663</v>
+        <v>1.492389388072687</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.304541495385518</v>
@@ -24909,7 +24861,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.485680633387195</v>
+        <v>1.475128649075119</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.068396047179324</v>
@@ -24998,7 +24950,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.481037496216092</v>
+        <v>1.475989870868083</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.339372049974425</v>
@@ -25087,7 +25039,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.477314420759488</v>
+        <v>1.474155837708292</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.38453923900363</v>
@@ -25176,7 +25128,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.479403744250676</v>
+        <v>1.478493735529811</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.267373193701848</v>
@@ -25265,7 +25217,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.471066834772443</v>
+        <v>1.470318778606094</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.266914481417796</v>
@@ -25354,7 +25306,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.465062554419218</v>
+        <v>1.466920132920357</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.301282215382847</v>
@@ -25443,7 +25395,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.459602831500934</v>
+        <v>1.460321901147564</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.294541578662445</v>
@@ -25532,7 +25484,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.461087266541975</v>
+        <v>1.462198232353706</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.314483245026562</v>
@@ -25621,7 +25573,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.465304243660414</v>
+        <v>1.463704752155702</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.253526083361109</v>
@@ -25710,7 +25662,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.423846758360887</v>
+        <v>1.421749678491355</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.301140521383423</v>
@@ -25799,7 +25751,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.382293803952224</v>
+        <v>1.379257400508583</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.33974811594401</v>
@@ -25888,7 +25840,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.374981494329126</v>
+        <v>1.37471813678332</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.136727930294928</v>
@@ -25977,7 +25929,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.312113913405524</v>
+        <v>1.30741804967869</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.664524798866223</v>
@@ -26066,7 +26018,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.334950104140393</v>
+        <v>1.331441757304378</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.658634549958269</v>
@@ -26155,7 +26107,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.318850134173325</v>
+        <v>1.316647977295391</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.650179280225031</v>
@@ -26244,7 +26196,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.335370206312519</v>
+        <v>1.337890735965194</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.664899392167869</v>
@@ -26333,7 +26285,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.336780107338863</v>
+        <v>1.339968337305784</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.670215573784801</v>
@@ -26422,7 +26374,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.344115562517765</v>
+        <v>1.347332382671285</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.676137210036994</v>
@@ -26511,7 +26463,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.329638399054258</v>
+        <v>1.332253042791081</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.692978687997519</v>
@@ -26600,7 +26552,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.326543779666763</v>
+        <v>1.329700325202392</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.682647879535704</v>
@@ -26689,7 +26641,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.323046241385319</v>
+        <v>1.326499529198683</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.699201624483927</v>
@@ -26778,7 +26730,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.322185804537021</v>
+        <v>1.326571455271521</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.687555215646271</v>
@@ -26867,7 +26819,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.307869440867022</v>
+        <v>1.270306301623156</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.765183418114948</v>
@@ -26956,7 +26908,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.297557078657779</v>
+        <v>1.263161513512598</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.785594358154245</v>
@@ -27045,7 +26997,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.363846276655061</v>
+        <v>1.357760319523785</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.403255488660969</v>
@@ -27134,7 +27086,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.20544019331613</v>
+        <v>1.180658396970026</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.433387085775169</v>
@@ -27223,7 +27175,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.20672235602152</v>
+        <v>1.181173592732143</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.436668596668571</v>
@@ -27312,7 +27264,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.260763238717558</v>
+        <v>1.25277141025699</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.489680158292072</v>
@@ -27598,7 +27550,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.226843673479731</v>
+        <v>1.204166687935585</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.626594279563736</v>
@@ -27687,7 +27639,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.228206565089609</v>
+        <v>1.206173534470717</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.629768154838787</v>
@@ -27776,7 +27728,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.239121406563809</v>
+        <v>1.214867530698609</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.642764593983474</v>
@@ -27865,7 +27817,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.259253432786841</v>
+        <v>1.231327633335045</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.501545965982585</v>
@@ -27954,7 +27906,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.381862183933905</v>
+        <v>1.364562745283576</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.157825059128499</v>
@@ -28043,7 +27995,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.385839371357036</v>
+        <v>1.371525228173268</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.215085563084891</v>
@@ -28132,7 +28084,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.383676243967051</v>
+        <v>1.372608732039751</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.094125060683004</v>
@@ -28221,7 +28173,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.381531524316655</v>
+        <v>1.369928345439027</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.055820360584541</v>
@@ -28310,7 +28262,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.367601094516649</v>
+        <v>1.353874900272412</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.037203831277547</v>
@@ -28399,7 +28351,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.348367585550359</v>
+        <v>1.34069954106384</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.059655936783123</v>
@@ -28488,7 +28440,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.356752707899564</v>
+        <v>1.350026878089311</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.090502225149643</v>
@@ -28577,7 +28529,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.364194399892952</v>
+        <v>1.357164158613123</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.11522458622932</v>
@@ -28666,7 +28618,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.366258434126195</v>
+        <v>1.359013837023252</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.274216225059248</v>
@@ -28755,7 +28707,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.3708834454525</v>
+        <v>1.365107605148311</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.068483567269964</v>
@@ -28844,7 +28796,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.371098054295053</v>
+        <v>1.363910845212082</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.020281971289215</v>
@@ -28933,7 +28885,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.373910288514089</v>
+        <v>1.361721870297929</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.108452939994176</v>
@@ -29022,7 +28974,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.41094117976559</v>
+        <v>1.394051329429171</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.05893994463365</v>
@@ -29111,7 +29063,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.365726855400312</v>
+        <v>1.354276499716266</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.006052230308654</v>
@@ -29200,7 +29152,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.361896451695664</v>
+        <v>1.352870895236974</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.009710975352605</v>
@@ -29289,7 +29241,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.323349795144469</v>
+        <v>1.313584450709768</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.146861633123511</v>
@@ -29378,7 +29330,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.336638143625263</v>
+        <v>1.327954284933411</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.110114527719402</v>
@@ -29467,7 +29419,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.304550902218826</v>
+        <v>1.301205320112083</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.057554044733656</v>
@@ -29556,7 +29508,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.277607543924098</v>
+        <v>1.272650761916251</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.096513645307385</v>
@@ -29645,7 +29597,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.276340889119954</v>
+        <v>1.263625952513985</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.06540970879866</v>
@@ -29734,7 +29686,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.259502795126685</v>
+        <v>1.256878318293243</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.105825449361913</v>
@@ -29823,7 +29775,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.258328249289229</v>
+        <v>1.258500177473222</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.093340165854195</v>
@@ -29912,7 +29864,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.257396621736133</v>
+        <v>1.256357557800334</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.136022746938178</v>
@@ -30001,7 +29953,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.231548751879134</v>
+        <v>1.225470902854559</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.777039221940318</v>
@@ -30090,7 +30042,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.21173400622044</v>
+        <v>1.210009253549785</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.787745417267673</v>
@@ -30179,7 +30131,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.21238338876377</v>
+        <v>1.209572762367678</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.781848688251882</v>
@@ -30268,7 +30220,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.211677920763309</v>
+        <v>1.210184304747488</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.786853666128641</v>
@@ -30357,7 +30309,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.211619237619638</v>
+        <v>1.211117018340111</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.751400401886846</v>
@@ -30446,7 +30398,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.184881079812713</v>
+        <v>1.185839271320922</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.750184980720073</v>
@@ -30535,7 +30487,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.176992184045137</v>
+        <v>1.176974576346388</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.832206371140863</v>
@@ -30624,7 +30576,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.182998125569045</v>
+        <v>1.179029005156262</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.850423237916708</v>
@@ -30713,7 +30665,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.208179960512383</v>
+        <v>1.20062535429952</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.934450166181363</v>
@@ -30802,7 +30754,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.215255482543309</v>
+        <v>1.209637823499471</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.91439057336774</v>
@@ -30891,7 +30843,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.223923952539584</v>
+        <v>1.219852616124151</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.918067618829289</v>
@@ -30980,7 +30932,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.243259267600229</v>
+        <v>1.239303033203529</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.010495483405839</v>
@@ -31069,7 +31021,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.252603528912609</v>
+        <v>1.250022820803961</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.960688035278672</v>
@@ -31158,7 +31110,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.257726863646487</v>
+        <v>1.256236916305849</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.962528756236275</v>
@@ -31247,7 +31199,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.259919044577191</v>
+        <v>1.261082183076194</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.00608501768041</v>
@@ -31336,7 +31288,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.287029266591538</v>
+        <v>1.288765170369629</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.903858251002441</v>
@@ -31425,7 +31377,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.289805276608347</v>
+        <v>1.290144896759304</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.994170360965186</v>
@@ -31514,7 +31466,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.295618220503455</v>
+        <v>1.298003215275431</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.999820537725756</v>
@@ -31603,7 +31555,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.298738096760336</v>
+        <v>1.299804807315412</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.041862325186421</v>
@@ -31692,7 +31644,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.315341197128411</v>
+        <v>1.3148231790702</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.004993385610689</v>
@@ -31781,7 +31733,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.362627534892335</v>
+        <v>1.360785758543691</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.136927693837755</v>
@@ -31870,7 +31822,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.354772241158304</v>
+        <v>1.349917702804235</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.155590460499941</v>
@@ -31959,7 +31911,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.395753183830832</v>
+        <v>1.392005350287292</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.920451699216227</v>
@@ -32048,7 +32000,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.395710572240475</v>
+        <v>1.40411647008484</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.800658686905337</v>
